--- a/data/trans_dic/P33B_R4-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R4-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.212130340305287</v>
+        <v>0.2145811372580775</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3385740291527575</v>
+        <v>0.3409683181593734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2967117655783656</v>
+        <v>0.2934736725746494</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2907534463318431</v>
+        <v>0.295507663269482</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4125535031675955</v>
+        <v>0.4120115878814741</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3499014775925123</v>
+        <v>0.3498616336997682</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1301688698019404</v>
+        <v>0.1291380368049179</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.224447544089119</v>
+        <v>0.2210723843468945</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.184020570739592</v>
+        <v>0.1849967783594592</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1768073742539648</v>
+        <v>0.1757075899720119</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2669323057068267</v>
+        <v>0.2642992163642003</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2185153355583462</v>
+        <v>0.217934998046796</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09642006948786185</v>
+        <v>0.09700318992539417</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1539643722718734</v>
+        <v>0.1525478050266893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1295477691015242</v>
+        <v>0.1284183346173645</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1377627036858884</v>
+        <v>0.1378494225891064</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1959256162891538</v>
+        <v>0.193222873029997</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.157385288935355</v>
+        <v>0.1574312531987326</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07280368384478304</v>
+        <v>0.07341220860874774</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1432033509684999</v>
+        <v>0.1439435663768421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1123022522428913</v>
+        <v>0.1125781201320001</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1199871130775525</v>
+        <v>0.1175293158519528</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1880976918257715</v>
+        <v>0.1900889706841254</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1445604257963716</v>
+        <v>0.1450917373752768</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.2266123029306664</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1838578494336338</v>
+        <v>0.1838578494336337</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1256668744627816</v>
+        <v>0.125987302136348</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2148134291898547</v>
+        <v>0.2154442410849851</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1752391661697008</v>
+        <v>0.1751692177634245</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1509630540200364</v>
+        <v>0.1509921356895193</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.23987954116173</v>
+        <v>0.2388724846216882</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1925445767885229</v>
+        <v>0.1921367048854802</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>105590</v>
+        <v>106810</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>211128</v>
+        <v>212621</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>332715</v>
+        <v>329084</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>144726</v>
+        <v>147092</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>257260</v>
+        <v>256922</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>392359</v>
+        <v>392314</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>124980</v>
+        <v>123990</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>250283</v>
+        <v>246520</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>381888</v>
+        <v>383914</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>169759</v>
+        <v>168703</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>297659</v>
+        <v>294722</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>453473</v>
+        <v>452269</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>100806</v>
+        <v>101416</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>161235</v>
+        <v>159752</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>271107</v>
+        <v>268743</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>144030</v>
+        <v>144120</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>205178</v>
+        <v>202348</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>329363</v>
+        <v>329459</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>71051</v>
+        <v>71645</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>130065</v>
+        <v>130737</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>211598</v>
+        <v>212117</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>117099</v>
+        <v>114700</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>170840</v>
+        <v>172648</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>272378</v>
+        <v>273379</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>437235</v>
+        <v>438350</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>793556</v>
+        <v>795887</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1257076</v>
+        <v>1256574</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>525248</v>
+        <v>525350</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>886155</v>
+        <v>882435</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1381216</v>
+        <v>1378290</v>
       </c>
     </row>
     <row r="24">
